--- a/Projects/Tutorial_Git/tutorial_a.xlsx
+++ b/Projects/Tutorial_Git/tutorial_a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Git\MVC2GEN\Projects\Tutorial_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Git\MVC2GEN\projects\Tutorial_Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2251A5F1-98C6-4922-8092-E36F5D747401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACB8E8A-DD35-43B3-9426-C726BDA7EA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="11895" windowWidth="43200" windowHeight="19890" tabRatio="472" activeTab="3" xr2:uid="{C1DAB06C-E32A-4478-9BF0-FAAE5BE15E61}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32640" tabRatio="676" activeTab="3" xr2:uid="{C1DAB06C-E32A-4478-9BF0-FAAE5BE15E61}"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorial_A_Notes" sheetId="4" r:id="rId1"/>
@@ -1442,7 +1442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1622,6 +1622,10 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4884,8 +4888,8 @@
   </sheetPr>
   <dimension ref="A1:AH61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6158,7 +6162,7 @@
       <c r="AH34" s="3"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -6194,7 +6198,7 @@
       <c r="AH35" s="3"/>
     </row>
     <row r="36" spans="1:34" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="61" t="s">
         <v>208</v>
       </c>
       <c r="B36" s="3"/>
@@ -6232,7 +6236,7 @@
       <c r="AH36" s="3"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -6268,7 +6272,7 @@
       <c r="AH37" s="3"/>
     </row>
     <row r="38" spans="1:34" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="61" t="s">
         <v>207</v>
       </c>
       <c r="B38" s="3"/>
@@ -6306,7 +6310,7 @@
       <c r="AH38" s="3"/>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -6342,7 +6346,7 @@
       <c r="AH39" s="3"/>
     </row>
     <row r="40" spans="1:34" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="61" t="s">
         <v>206</v>
       </c>
       <c r="B40" s="3"/>
@@ -6379,98 +6383,104 @@
       <c r="AG40" s="3"/>
       <c r="AH40" s="3"/>
     </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A41" s="62"/>
+    </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="62" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="62" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="62" t="s">
         <v>203</v>
       </c>
     </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A45" s="62"/>
+    </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="62" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="62" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="62" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="62" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="62" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="62" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="62" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="62" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="62" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="62" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="62" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="62" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="62" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="62" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="62" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="62" t="s">
         <v>187</v>
       </c>
     </row>
@@ -7485,7 +7495,7 @@
   </sheetPr>
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -8558,58 +8568,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CDEDFD-4664-4A3F-97DB-3528CE3226A6}">
   <dimension ref="A1:BF28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G34" sqref="G34"/>
+      <selection pane="topRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="7.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="7.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="8.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="9.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="7.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="7.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="7.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="7.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="8.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="7.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="7.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="11.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="10.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="8.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8" style="32" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="32" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="32" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8" style="32" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="32" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8" style="32" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="7" style="32" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8" style="32" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="7" style="32" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="32" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7" style="32" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="8" style="32" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7" style="32" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8" style="32" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="9" style="32" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="7" style="32" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10" style="32" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7" style="32" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11" style="32" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="7" style="32" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9" style="32" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8" style="32" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="7" style="32" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11" style="32" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="7" style="32" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="8" style="32" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7" style="32" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10" style="32" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="7" style="32" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11" style="32" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10" style="32" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12" style="32" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8" style="32" bestFit="1" customWidth="1"/>
     <col min="59" max="16384" width="14.85546875" style="32"/>
   </cols>
   <sheetData>
